--- a/Output/SVM.xlsx
+++ b/Output/SVM.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="confusion_matrix" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="scores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="metrics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="classification_report" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="metrics" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,28 +449,22 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3844</v>
+        <v>3653</v>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>859</v>
       </c>
       <c r="D2" t="n">
+        <v>112</v>
+      </c>
+      <c r="E2" t="n">
         <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -477,19 +472,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>475</v>
+        <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -497,19 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D4" t="n">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -520,36 +509,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -558,6 +524,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9856988667026444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1858083394294075</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6325648414985591</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7391234804862444</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5927705892272404</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.862072362687647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7886442141623489</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6318407960199005</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4910514541387024</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8487654320987654</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7391234804862444</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6900754741049293</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7391234804862444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.876229311585512</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.287167891464104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.552896725440806</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6798516687268232</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7391234804862444</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5990363993043113</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7819413430652962</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4632</v>
+      </c>
+      <c r="C5" t="n">
+        <v>402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>894</v>
+      </c>
+      <c r="E5" t="n">
+        <v>324</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7391234804862444</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6252</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -581,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8771593090211133</v>
+        <v>0.8433253397282174</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8502879078694817</v>
+        <v>0.8369304556354916</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8714011516314779</v>
+        <v>0.8456</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8483685220729367</v>
+        <v>0.8408</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8637236084452975</v>
+        <v>0.828</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -647,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9380262589909538</v>
+        <v>0.9265324424123949</v>
       </c>
     </row>
     <row r="3">
@@ -657,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8643337440627147</v>
+        <v>0.7819413430652962</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +801,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8621880998080613</v>
+        <v>0.8389311590727418</v>
       </c>
     </row>
   </sheetData>

--- a/Output/SVM.xlsx
+++ b/Output/SVM.xlsx
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3653</v>
+        <v>3682</v>
       </c>
       <c r="C2" t="n">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +472,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D4" t="n">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9856988667026444</v>
+        <v>0.9868667917448405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1858083394294075</v>
+        <v>0.1984962406015038</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6325648414985591</v>
+        <v>0.6424501424501424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5670103092783505</v>
+        <v>0.5766871165644172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7391234804862444</v>
+        <v>0.7484005118362124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5927705892272404</v>
+        <v>0.601125072840226</v>
       </c>
       <c r="H2" t="n">
-        <v>0.862072362687647</v>
+        <v>0.8656685094691627</v>
       </c>
     </row>
     <row r="3">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7886442141623489</v>
+        <v>0.7949050086355786</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4910514541387024</v>
+        <v>0.5044742729306487</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8487654320987654</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7391234804862444</v>
+        <v>0.7484005118362124</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6900754741049293</v>
+        <v>0.7066165174617614</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7391234804862444</v>
+        <v>0.7484005118362124</v>
       </c>
     </row>
     <row r="4">
@@ -637,25 +637,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.876229311585512</v>
+        <v>0.8805452588783929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.287167891464104</v>
+        <v>0.3048498845265589</v>
       </c>
       <c r="D4" t="n">
-        <v>0.552896725440806</v>
+        <v>0.5651629072681703</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6798516687268232</v>
+        <v>0.6937269372693726</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7391234804862444</v>
+        <v>0.7484005118362124</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5990363993043113</v>
+        <v>0.6110712469856237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7819413430652962</v>
+        <v>0.7887489538511537</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7391234804862444</v>
+        <v>0.7484005118362124</v>
       </c>
       <c r="G5" t="n">
         <v>6252</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9265324424123949</v>
+        <v>0.9281126671929596</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7819413430652962</v>
+        <v>0.7887489538511537</v>
       </c>
     </row>
     <row r="4">

--- a/Output/SVM.xlsx
+++ b/Output/SVM.xlsx
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3682</v>
+        <v>3675</v>
       </c>
       <c r="C2" t="n">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D2" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +472,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D4" t="n">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E4" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9868667917448405</v>
+        <v>0.9855189058728882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1984962406015038</v>
+        <v>0.1902621722846442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6424501424501424</v>
+        <v>0.6262482168330956</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5766871165644172</v>
+        <v>0.5646817248459959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7484005118362124</v>
+        <v>0.7426423544465771</v>
       </c>
       <c r="G2" t="n">
-        <v>0.601125072840226</v>
+        <v>0.591677754959156</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8656685094691627</v>
+        <v>0.8612014955151208</v>
       </c>
     </row>
     <row r="3">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7949050086355786</v>
+        <v>0.7933937823834197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6567164179104478</v>
+        <v>0.6318407960199005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5044742729306487</v>
+        <v>0.4910514541387024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8487654320987654</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7484005118362124</v>
+        <v>0.7426423544465771</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7066165174617614</v>
+        <v>0.6912628661601971</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7484005118362124</v>
+        <v>0.7426423544465771</v>
       </c>
     </row>
     <row r="4">
@@ -637,25 +637,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8805452588783929</v>
+        <v>0.8790814495873699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3048498845265589</v>
+        <v>0.2924582613701785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5651629072681703</v>
+        <v>0.5504702194357367</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6937269372693726</v>
+        <v>0.6781750924784217</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7484005118362124</v>
+        <v>0.7426423544465771</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6110712469856237</v>
+        <v>0.6000462557179267</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7887489538511537</v>
+        <v>0.7839607488320643</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7484005118362124</v>
+        <v>0.7426423544465771</v>
       </c>
       <c r="G5" t="n">
         <v>6252</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9281126671929596</v>
+        <v>0.9269879657228898</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7887489538511537</v>
+        <v>0.7839607488320643</v>
       </c>
     </row>
     <row r="4">
